--- a/Project Management/Charges.xlsx
+++ b/Project Management/Charges.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t xml:space="preserve">Corentin</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ihm conceptualizing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working front + back</t>
   </si>
   <si>
     <t xml:space="preserve">0.5</t>
@@ -103,7 +106,7 @@
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,12 +128,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -214,72 +211,64 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -534,15 +523,15 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="43.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="41.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="41.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="13.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="38.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="13.58"/>
@@ -732,24 +721,28 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15" t="s">
+      <c r="A8" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14"/>
+      <c r="F8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
+      <c r="J8" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Project Management/Charges.xlsx
+++ b/Project Management/Charges.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoth\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358A9B27-758E-441E-BF1F-948BF49E1750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,93 +25,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">Corentin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planning projet from descriptif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use case diagram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En dehors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class diagramm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use case diagramm correction and description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use case diagram propre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">React + node java project set up with dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XML parser calss and functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use case description + personna + glossary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class diagramm (comprehension of MVC and REACT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IHM start implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ihm conceptualizing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">working front + back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chargerPlan() and Point → Long (idPoint)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classes and service chargerPlan()</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+  <si>
+    <t>Corentin</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Saad</t>
+  </si>
+  <si>
+    <t>heures</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>Planning projet from descriptif</t>
+  </si>
+  <si>
+    <t>use case diagram</t>
+  </si>
+  <si>
+    <t>En dehors</t>
+  </si>
+  <si>
+    <t>Class diagramm</t>
+  </si>
+  <si>
+    <t>use case diagramm correction and description</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>use case diagram propre</t>
+  </si>
+  <si>
+    <t>React + node java project set up with dependencies</t>
+  </si>
+  <si>
+    <t>XML parser calss and functions</t>
+  </si>
+  <si>
+    <t>use case description + personna + glossary</t>
+  </si>
+  <si>
+    <t>class diagramm (comprehension of MVC and REACT)</t>
+  </si>
+  <si>
+    <t>IHM start implementation</t>
+  </si>
+  <si>
+    <t>Ihm conceptualizing</t>
+  </si>
+  <si>
+    <t>working front + back</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>chargerPlan() and Point → Long (idPoint)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formation REACT </t>
+  </si>
+  <si>
+    <t>Problème Java21 + Nav Windows + Lecture Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problème Java21 + Nav Windows </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,23 +117,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,16 +149,28 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFC6C6C6"/>
       </left>
@@ -186,101 +186,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -339,47 +293,63 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -387,12 +357,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -419,7 +389,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -440,7 +410,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -491,7 +461,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -507,250 +477,264 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="43.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="41.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="38.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="44.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="38.29"/>
+    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="6">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="6">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="8">
         <v>3.5</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="6">
         <v>3</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="11" t="n">
+      <c r="C4" s="10"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="8">
         <v>0.5</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="6">
         <v>1</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="6">
         <v>4</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="6">
         <v>4</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="6">
         <v>4</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="6">
         <v>3</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7" t="n">
+      <c r="C7" s="10"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6">
         <v>1</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12">
+        <v>6</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15">
+        <v>2</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="12"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>